--- a/docs/CodeSystem-ConsentExchangeRelationships.xlsx
+++ b/docs/CodeSystem-ConsentExchangeRelationships.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-09T03:19:35-05:00</t>
+    <t>2024-09-11T16:17:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -65,7 +65,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>MITRE (https://www.mitre.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -238,7 +244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -338,63 +344,71 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>28</v>
       </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
